--- a/codigo/espectadores peliculas.xlsx
+++ b/codigo/espectadores peliculas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Bob Esponja</t>
   </si>
@@ -148,6 +148,24 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>Carlitos y snoopy</t>
+  </si>
+  <si>
+    <t>Odiosos ocho</t>
+  </si>
+  <si>
+    <t>Mr Holmes</t>
+  </si>
+  <si>
+    <t>Perdona si te llamo amor</t>
+  </si>
+  <si>
+    <t>Ahora o nunca</t>
+  </si>
+  <si>
+    <t>El desafio</t>
   </si>
 </sst>
 </file>
@@ -480,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E43"/>
+  <dimension ref="A2:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -503,7 +521,7 @@
         <v>42</v>
       </c>
       <c r="E2">
-        <f>MAX(B2:B43)</f>
+        <f>MAX(B2:B46)</f>
         <v>5658444</v>
       </c>
     </row>
@@ -518,7 +536,7 @@
         <v>43</v>
       </c>
       <c r="E3">
-        <f>MIN(B2:B43)</f>
+        <f>MIN(B2:B46)</f>
         <v>49476</v>
       </c>
     </row>
@@ -841,6 +859,54 @@
       </c>
       <c r="B43">
         <v>476900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>750042</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>708878</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>107492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>353258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>1398013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>303416</v>
       </c>
     </row>
   </sheetData>

--- a/codigo/espectadores peliculas.xlsx
+++ b/codigo/espectadores peliculas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Bob Esponja</t>
   </si>
@@ -166,14 +166,55 @@
   </si>
   <si>
     <t>El desafio</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>Muy Poco</t>
+  </si>
+  <si>
+    <t>Bastante</t>
+  </si>
+  <si>
+    <t>Muchos</t>
+  </si>
+  <si>
+    <t>Descifrando Enigma</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>El destino de Jupiter</t>
+  </si>
+  <si>
+    <t>Operación U.N.C.L.E.</t>
+  </si>
+  <si>
+    <t>Truman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -201,9 +242,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,19 +540,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E49"/>
+  <dimension ref="A2:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -525,7 +568,7 @@
         <v>5658444</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -539,8 +582,11 @@
         <f>MIN(B2:B46)</f>
         <v>49476</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <v>49476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -548,368 +594,590 @@
         <v>1657171</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <v>85578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>314338</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <v>97553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>671740</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <v>107492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>2112954</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7">
+        <v>122304</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE(G3:G50)</f>
+        <v>1245429.3541666667</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>139196</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <v>139196</v>
+      </c>
+      <c r="I8">
+        <f>MEDIAN(G3:G50)</f>
+        <v>694120.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>122304</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9">
+        <v>172142</v>
+      </c>
+      <c r="I9">
+        <f>MEDIAN(G27:G50)</f>
+        <v>1726224.5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>1112434</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10">
+        <v>263511</v>
+      </c>
+      <c r="L10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>675403</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11">
+        <v>283056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>760539</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12">
+        <v>303416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>2134501</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13">
+        <v>314338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>415716</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14">
+        <v>318858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>1438221</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15">
+        <v>348584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>5658444</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="G16">
+        <v>353258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>3593476</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="G17">
+        <v>357624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>492158</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="G18">
+        <v>379859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>559315</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="G19">
+        <v>415716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>996550</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="G20">
+        <v>476900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>679363</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="G21">
+        <v>492158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>379859</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="G22">
+        <v>559315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>792125</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="G23">
+        <v>563389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>283056</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="G24">
+        <v>671740</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>348584</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="G25">
+        <v>675403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>2648738</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="G26">
+        <v>679363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>4907250</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="G27">
+        <v>708878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>172142</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="G28">
+        <v>750042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>1795278</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="G29">
+        <v>760539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>1917430</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="G30">
+        <v>792125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>563389</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="G31">
+        <v>931003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>1388507</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="G32">
+        <v>996550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
         <v>318858</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="G33">
+        <v>1112434</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
         <v>263511</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="G34">
+        <v>1388507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
         <v>357624</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="G35">
+        <v>1398013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
         <v>4267631</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="G36">
+        <v>1438221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
         <v>3883344</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="G37">
+        <v>1649211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
         <v>85578</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="G38">
+        <v>1657171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
         <v>1649211</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="G39">
+        <v>1795278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
         <v>1939490</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="G40">
+        <v>1917430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
         <v>49476</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="G41">
+        <v>1939490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
         <v>97553</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="G42">
+        <v>2112954</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
         <v>476900</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="G43">
+        <v>2134501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
         <v>750042</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="G44">
+        <v>2648738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45">
         <v>708878</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="G45">
+        <v>3109150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46">
         <v>107492</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="G46">
+        <v>3593476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47">
         <v>353258</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="G47">
+        <v>3883344</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48">
         <v>1398013</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="G48">
+        <v>4267631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49">
         <v>303416</v>
       </c>
+      <c r="G49">
+        <v>4907250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>617802</v>
+      </c>
+      <c r="G50">
+        <v>5658444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>653231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>619759</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>377452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>420187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>613087</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="G3:G50">
+    <sortCondition ref="G50"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/codigo/espectadores peliculas.xlsx
+++ b/codigo/espectadores peliculas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
   <si>
     <t>Bob Esponja</t>
   </si>
@@ -144,12 +144,6 @@
     <t>Mi gran noche</t>
   </si>
   <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
     <t>Carlitos y snoopy</t>
   </si>
   <si>
@@ -165,24 +159,6 @@
     <t>Ahora o nunca</t>
   </si>
   <si>
-    <t>El desafio</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Muy Poco</t>
-  </si>
-  <si>
-    <t>Bastante</t>
-  </si>
-  <si>
-    <t>Muchos</t>
-  </si>
-  <si>
     <t>Descifrando Enigma</t>
   </si>
   <si>
@@ -199,22 +175,224 @@
   </si>
   <si>
     <t>Truman</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Espectadores</t>
+  </si>
+  <si>
+    <t>Recaudacion</t>
+  </si>
+  <si>
+    <t>5542552.70</t>
+  </si>
+  <si>
+    <t>19529367.43</t>
+  </si>
+  <si>
+    <t>10450257.42</t>
+  </si>
+  <si>
+    <t>1892543.58</t>
+  </si>
+  <si>
+    <t>3804931.59</t>
+  </si>
+  <si>
+    <t>12076641.76</t>
+  </si>
+  <si>
+    <t>849136.62</t>
+  </si>
+  <si>
+    <t>508584.00</t>
+  </si>
+  <si>
+    <t>64223727.68</t>
+  </si>
+  <si>
+    <t>4223727.68</t>
+  </si>
+  <si>
+    <t>4430298.67</t>
+  </si>
+  <si>
+    <t>13441720.24</t>
+  </si>
+  <si>
+    <t>2659785.05</t>
+  </si>
+  <si>
+    <t>8929800.96</t>
+  </si>
+  <si>
+    <t>35308314.45</t>
+  </si>
+  <si>
+    <t>21993812.55</t>
+  </si>
+  <si>
+    <t>3127345.09</t>
+  </si>
+  <si>
+    <t>5488100.41</t>
+  </si>
+  <si>
+    <t>3855318.40</t>
+  </si>
+  <si>
+    <t>2132051.83</t>
+  </si>
+  <si>
+    <t>365535.81</t>
+  </si>
+  <si>
+    <t>792125.99</t>
+  </si>
+  <si>
+    <t>1831157.10</t>
+  </si>
+  <si>
+    <t>2047822.08</t>
+  </si>
+  <si>
+    <t>16781603.65</t>
+  </si>
+  <si>
+    <t>32497616.71</t>
+  </si>
+  <si>
+    <t>964779.67</t>
+  </si>
+  <si>
+    <t>11317146.86</t>
+  </si>
+  <si>
+    <t>11090365.41</t>
+  </si>
+  <si>
+    <t>3228081.87</t>
+  </si>
+  <si>
+    <t>9199992.09</t>
+  </si>
+  <si>
+    <t>2019687.85</t>
+  </si>
+  <si>
+    <t>1598757.05</t>
+  </si>
+  <si>
+    <t>2090555.63</t>
+  </si>
+  <si>
+    <t>23998733.96</t>
+  </si>
+  <si>
+    <t>21792705.41</t>
+  </si>
+  <si>
+    <t>5167717.78</t>
+  </si>
+  <si>
+    <t>9359043.56</t>
+  </si>
+  <si>
+    <t>528426.69</t>
+  </si>
+  <si>
+    <t>2454666.99</t>
+  </si>
+  <si>
+    <t>10970654.28</t>
+  </si>
+  <si>
+    <t>307429.67</t>
+  </si>
+  <si>
+    <t>4289249.36</t>
+  </si>
+  <si>
+    <t>4589249.36</t>
+  </si>
+  <si>
+    <t>662911.18</t>
+  </si>
+  <si>
+    <t>1945277.24</t>
+  </si>
+  <si>
+    <t>8274058.79</t>
+  </si>
+  <si>
+    <t>3976365.48</t>
+  </si>
+  <si>
+    <t>4209711.41</t>
+  </si>
+  <si>
+    <t>2730305.02</t>
+  </si>
+  <si>
+    <t>3854680.39</t>
+  </si>
+  <si>
+    <t>2502007.08</t>
+  </si>
+  <si>
+    <t>2613479.13</t>
+  </si>
+  <si>
+    <t>3477359.32</t>
+  </si>
+  <si>
+    <t>Copia de espectadores</t>
+  </si>
+  <si>
+    <t>Copia de recaudacion</t>
+  </si>
+  <si>
+    <t>Cenicienta</t>
+  </si>
+  <si>
+    <t>7920192.26</t>
+  </si>
+  <si>
+    <t>Tomorrowland El mundo del mañana</t>
+  </si>
+  <si>
+    <t>4381595.14</t>
+  </si>
+  <si>
+    <t>Everest</t>
+  </si>
+  <si>
+    <t>6034290.66</t>
+  </si>
+  <si>
+    <t>El desafio(The walk)</t>
+  </si>
+  <si>
+    <t>Vacacioes</t>
+  </si>
+  <si>
+    <t>1958465.30</t>
+  </si>
+  <si>
+    <t>Una historia real</t>
+  </si>
+  <si>
+    <t>187652.61</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -242,10 +420,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,19 +717,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L56"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
@@ -561,11 +756,13 @@
         <v>931003</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2">
-        <f>MAX(B2:B46)</f>
-        <v>5658444</v>
+        <v>56</v>
+      </c>
+      <c r="I2">
+        <v>931003</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -576,14 +773,13 @@
         <v>3109150</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3">
-        <f>MIN(B2:B46)</f>
-        <v>49476</v>
-      </c>
-      <c r="G3">
-        <v>49476</v>
+        <v>57</v>
+      </c>
+      <c r="I3">
+        <v>3109150</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -593,9 +789,15 @@
       <c r="B4">
         <v>1657171</v>
       </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="G4">
-        <v>85578</v>
+      <c r="I4">
+        <v>1657171</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -605,8 +807,14 @@
       <c r="B5">
         <v>314338</v>
       </c>
-      <c r="G5">
-        <v>97553</v>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5">
+        <v>314338</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -616,8 +824,14 @@
       <c r="B6">
         <v>671740</v>
       </c>
-      <c r="G6">
-        <v>107492</v>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>671740</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -627,15 +841,14 @@
       <c r="B7">
         <v>2112954</v>
       </c>
-      <c r="G7">
-        <v>122304</v>
+      <c r="D7" t="s">
+        <v>61</v>
       </c>
       <c r="I7">
-        <f>AVERAGE(G3:G50)</f>
-        <v>1245429.3541666667</v>
+        <v>2112954</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -645,18 +858,14 @@
       <c r="B8">
         <v>139196</v>
       </c>
-      <c r="G8">
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8">
         <v>139196</v>
       </c>
-      <c r="I8">
-        <f>MEDIAN(G3:G50)</f>
-        <v>694120.5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -666,15 +875,14 @@
       <c r="B9">
         <v>122304</v>
       </c>
-      <c r="G9">
-        <v>172142</v>
+      <c r="D9" t="s">
+        <v>63</v>
       </c>
       <c r="I9">
-        <f>MEDIAN(G27:G50)</f>
-        <v>1726224.5</v>
+        <v>122304</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -684,11 +892,14 @@
       <c r="B10">
         <v>1112434</v>
       </c>
-      <c r="G10">
-        <v>263511</v>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10">
+        <v>1112434</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -698,8 +909,14 @@
       <c r="B11">
         <v>675403</v>
       </c>
-      <c r="G11">
-        <v>283056</v>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11">
+        <v>675403</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -709,8 +926,14 @@
       <c r="B12">
         <v>760539</v>
       </c>
-      <c r="G12">
-        <v>303416</v>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12">
+        <v>760539</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -720,8 +943,14 @@
       <c r="B13">
         <v>2134501</v>
       </c>
-      <c r="G13">
-        <v>314338</v>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13">
+        <v>2134501</v>
+      </c>
+      <c r="L13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -731,8 +960,14 @@
       <c r="B14">
         <v>415716</v>
       </c>
-      <c r="G14">
-        <v>318858</v>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14">
+        <v>415716</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -742,8 +977,14 @@
       <c r="B15">
         <v>1438221</v>
       </c>
-      <c r="G15">
-        <v>348584</v>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15">
+        <v>1438221</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -753,431 +994,765 @@
       <c r="B16">
         <v>5658444</v>
       </c>
-      <c r="G16">
-        <v>353258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16">
+        <v>5658444</v>
+      </c>
+      <c r="L16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>3593476</v>
       </c>
-      <c r="G17">
-        <v>357624</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17">
+        <v>3593476</v>
+      </c>
+      <c r="L17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>492158</v>
       </c>
-      <c r="G18">
-        <v>379859</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18">
+        <v>492158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>559315</v>
       </c>
-      <c r="G19">
-        <v>415716</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19">
+        <v>559315</v>
+      </c>
+      <c r="L19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>996550</v>
       </c>
-      <c r="G20">
-        <v>476900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20">
+        <v>996550</v>
+      </c>
+      <c r="L20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>679363</v>
       </c>
-      <c r="G21">
-        <v>492158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21">
+        <v>679363</v>
+      </c>
+      <c r="L21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>379859</v>
       </c>
-      <c r="G22">
-        <v>559315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22">
+        <v>379859</v>
+      </c>
+      <c r="L22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>792125</v>
       </c>
-      <c r="G23">
-        <v>563389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23">
+        <v>792125</v>
+      </c>
+      <c r="L23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>283056</v>
       </c>
-      <c r="G24">
-        <v>671740</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24">
+        <v>283056</v>
+      </c>
+      <c r="L24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>348584</v>
       </c>
-      <c r="G25">
-        <v>675403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25">
+        <v>348584</v>
+      </c>
+      <c r="L25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>2648738</v>
       </c>
-      <c r="G26">
-        <v>679363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26">
+        <v>2648738</v>
+      </c>
+      <c r="L26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>4907250</v>
       </c>
-      <c r="G27">
-        <v>708878</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27">
+        <v>4907250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>172142</v>
       </c>
-      <c r="G28">
-        <v>750042</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28">
+        <v>172142</v>
+      </c>
+      <c r="L28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>1795278</v>
       </c>
-      <c r="G29">
-        <v>760539</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29">
+        <v>1795278</v>
+      </c>
+      <c r="L29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>1917430</v>
       </c>
-      <c r="G30">
-        <v>792125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30">
+        <v>1917430</v>
+      </c>
+      <c r="L30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>563389</v>
       </c>
-      <c r="G31">
-        <v>931003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31">
+        <v>563389</v>
+      </c>
+      <c r="L31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>1388507</v>
       </c>
-      <c r="G32">
-        <v>996550</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32">
+        <v>1388507</v>
+      </c>
+      <c r="L32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
         <v>318858</v>
       </c>
-      <c r="G33">
-        <v>1112434</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33">
+        <v>318858</v>
+      </c>
+      <c r="L33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
         <v>263511</v>
       </c>
-      <c r="G34">
-        <v>1388507</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34">
+        <v>263511</v>
+      </c>
+      <c r="L34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
         <v>357624</v>
       </c>
-      <c r="G35">
-        <v>1398013</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35">
+        <v>357624</v>
+      </c>
+      <c r="L35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
         <v>4267631</v>
       </c>
-      <c r="G36">
-        <v>1438221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36">
+        <v>4267631</v>
+      </c>
+      <c r="L36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
         <v>3883344</v>
       </c>
-      <c r="G37">
-        <v>1649211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37">
+        <v>3883344</v>
+      </c>
+      <c r="L37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
         <v>85578</v>
       </c>
-      <c r="G38">
-        <v>1657171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38">
+        <v>85578</v>
+      </c>
+      <c r="L38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
         <v>1649211</v>
       </c>
-      <c r="G39">
-        <v>1795278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39">
+        <v>1649211</v>
+      </c>
+      <c r="L39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
         <v>1939490</v>
       </c>
-      <c r="G40">
-        <v>1917430</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40">
+        <v>1939490</v>
+      </c>
+      <c r="L40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
         <v>49476</v>
       </c>
-      <c r="G41">
-        <v>1939490</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41">
+        <v>49476</v>
+      </c>
+      <c r="L41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
         <v>97553</v>
       </c>
-      <c r="G42">
-        <v>2112954</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42">
+        <v>97553</v>
+      </c>
+      <c r="L42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
         <v>476900</v>
       </c>
-      <c r="G43">
-        <v>2134501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="D43" t="s">
+        <v>95</v>
+      </c>
+      <c r="I43">
+        <v>476900</v>
+      </c>
+      <c r="L43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>750042</v>
       </c>
-      <c r="G44">
-        <v>2648738</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44">
+        <v>750042</v>
+      </c>
+      <c r="L44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>708878</v>
       </c>
-      <c r="G45">
-        <v>3109150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="D45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45">
+        <v>708878</v>
+      </c>
+      <c r="L45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>107492</v>
       </c>
-      <c r="G46">
-        <v>3593476</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>107492</v>
+      </c>
+      <c r="L46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>353258</v>
       </c>
-      <c r="G47">
-        <v>3883344</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47">
+        <v>353258</v>
+      </c>
+      <c r="L47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>1398013</v>
       </c>
-      <c r="G48">
-        <v>4267631</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48">
+        <v>1398013</v>
+      </c>
+      <c r="L48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="B49">
         <v>303416</v>
       </c>
-      <c r="G49">
-        <v>4907250</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49">
+        <v>303416</v>
+      </c>
+      <c r="L49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>617802</v>
       </c>
-      <c r="G50">
-        <v>5658444</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>56</v>
+      <c r="D50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50">
+        <v>617802</v>
+      </c>
+      <c r="L50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B51">
         <v>653231</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>57</v>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51">
+        <v>653231</v>
+      </c>
+      <c r="L51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B52">
+        <v>450994</v>
+      </c>
+      <c r="D52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52">
+        <v>450994</v>
+      </c>
+      <c r="L52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53">
         <v>619759</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53">
+        <v>619759</v>
+      </c>
+      <c r="L53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54">
         <v>377452</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54">
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+      <c r="I54">
+        <v>377452</v>
+      </c>
+      <c r="L54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55">
         <v>420187</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55">
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55">
+        <v>420187</v>
+      </c>
+      <c r="L55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56">
         <v>613087</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="B56" s="2"/>
+      <c r="D56" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56">
+        <v>613087</v>
+      </c>
+      <c r="L56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1359043</v>
+      </c>
+      <c r="D57" t="s">
+        <v>113</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1359043</v>
+      </c>
+      <c r="L57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="1">
+        <v>744180</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+      <c r="I58" s="1">
+        <v>744180</v>
+      </c>
+      <c r="L58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="1">
+        <v>953526</v>
+      </c>
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+      <c r="I59" s="1">
+        <v>953526</v>
+      </c>
+      <c r="L59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="1">
+        <v>31343</v>
+      </c>
+      <c r="D60" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60" s="1">
+        <v>31343</v>
+      </c>
+      <c r="L60" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="G3:G50">
-    <sortCondition ref="G50"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/codigo/espectadores peliculas.xlsx
+++ b/codigo/espectadores peliculas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
   <si>
     <t>Bob Esponja</t>
   </si>
@@ -385,6 +385,78 @@
   </si>
   <si>
     <t>187652.61</t>
+  </si>
+  <si>
+    <t>Sinister 2</t>
+  </si>
+  <si>
+    <t>454436.44</t>
+  </si>
+  <si>
+    <t>El ultimo cazador de brujas</t>
+  </si>
+  <si>
+    <t>2379397.58</t>
+  </si>
+  <si>
+    <t>Vampyres</t>
+  </si>
+  <si>
+    <t>3988.30</t>
+  </si>
+  <si>
+    <t>It Follows</t>
+  </si>
+  <si>
+    <t>194212.00</t>
+  </si>
+  <si>
+    <t>Sweet Home</t>
+  </si>
+  <si>
+    <t>376490.69</t>
+  </si>
+  <si>
+    <t>Mision Imposible Nacion Secreta</t>
+  </si>
+  <si>
+    <t>6126549.07</t>
+  </si>
+  <si>
+    <t>Hitman Agente 47</t>
+  </si>
+  <si>
+    <t>858659.54</t>
+  </si>
+  <si>
+    <t>Campanilla y la leyenda de la bestia</t>
+  </si>
+  <si>
+    <t>1486549.14</t>
+  </si>
+  <si>
+    <t>Hotel Transilvania 2</t>
+  </si>
+  <si>
+    <t>11009279.62</t>
+  </si>
+  <si>
+    <t>Zootropolis</t>
+  </si>
+  <si>
+    <t>11235057.96</t>
+  </si>
+  <si>
+    <t>Alvin y las ardillas fiesta sobre ruedas</t>
+  </si>
+  <si>
+    <t>3913177.34</t>
+  </si>
+  <si>
+    <t>El puente de los espias</t>
+  </si>
+  <si>
+    <t>8810098.92</t>
   </si>
 </sst>
 </file>
@@ -717,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1750,6 +1822,138 @@
       </c>
       <c r="L60" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="1">
+        <v>74877</v>
+      </c>
+      <c r="D61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="1">
+        <v>476690</v>
+      </c>
+      <c r="D62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="1">
+        <v>749</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="1">
+        <v>32209</v>
+      </c>
+      <c r="D64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="1">
+        <v>87535</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1006133</v>
+      </c>
+      <c r="D66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="1">
+        <v>139483</v>
+      </c>
+      <c r="D67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="1">
+        <v>270334</v>
+      </c>
+      <c r="D68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2011770</v>
+      </c>
+      <c r="D69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1949131</v>
+      </c>
+      <c r="D70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="1">
+        <v>683125</v>
+      </c>
+      <c r="D71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1362967</v>
+      </c>
+      <c r="D72" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/codigo/espectadores peliculas.xlsx
+++ b/codigo/espectadores peliculas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="153">
   <si>
     <t>Bob Esponja</t>
   </si>
@@ -457,6 +457,24 @@
   </si>
   <si>
     <t>8810098.92</t>
+  </si>
+  <si>
+    <t>El desconocido</t>
+  </si>
+  <si>
+    <t>2978608.12</t>
+  </si>
+  <si>
+    <t>La visita</t>
+  </si>
+  <si>
+    <t>4752300.64</t>
+  </si>
+  <si>
+    <t>Golpe de Estado</t>
+  </si>
+  <si>
+    <t>881022.57</t>
   </si>
 </sst>
 </file>
@@ -789,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1954,6 +1972,39 @@
       </c>
       <c r="D72" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="1">
+        <v>484927</v>
+      </c>
+      <c r="D73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="1">
+        <v>768995</v>
+      </c>
+      <c r="D74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="1">
+        <v>141402</v>
+      </c>
+      <c r="D75" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/codigo/espectadores peliculas.xlsx
+++ b/codigo/espectadores peliculas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="204">
   <si>
     <t>Bob Esponja</t>
   </si>
@@ -475,14 +475,175 @@
   </si>
   <si>
     <t>881022.57</t>
+  </si>
+  <si>
+    <t>Noe</t>
+  </si>
+  <si>
+    <t>6756284.25</t>
+  </si>
+  <si>
+    <t>A partir de aquí son de 2014</t>
+  </si>
+  <si>
+    <t>Big Eyes</t>
+  </si>
+  <si>
+    <t>693421.21</t>
+  </si>
+  <si>
+    <t>El club de los incomprendidos</t>
+  </si>
+  <si>
+    <t>2148907.96</t>
+  </si>
+  <si>
+    <t>007 Spectre</t>
+  </si>
+  <si>
+    <t>7215754.55</t>
+  </si>
+  <si>
+    <t>3499182.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macbeth </t>
+  </si>
+  <si>
+    <t>Navidades ¿Bien o en familia?</t>
+  </si>
+  <si>
+    <t>568477.83</t>
+  </si>
+  <si>
+    <t>602321.20</t>
+  </si>
+  <si>
+    <t>Invisibles (time out of mind)</t>
+  </si>
+  <si>
+    <t>69663.13</t>
+  </si>
+  <si>
+    <t>Dope</t>
+  </si>
+  <si>
+    <t>3142.24</t>
+  </si>
+  <si>
+    <t>Un paseo por el bosque</t>
+  </si>
+  <si>
+    <t>353308.43</t>
+  </si>
+  <si>
+    <t>Krampus maldita navidad</t>
+  </si>
+  <si>
+    <t>1006793.38</t>
+  </si>
+  <si>
+    <t>Los tres reyes malos</t>
+  </si>
+  <si>
+    <t>48711.82</t>
+  </si>
+  <si>
+    <t>Techo y comida</t>
+  </si>
+  <si>
+    <t>108142.72</t>
+  </si>
+  <si>
+    <t>La maniobra de heimlich</t>
+  </si>
+  <si>
+    <t>1684.90</t>
+  </si>
+  <si>
+    <t>Nadie quiere la noche</t>
+  </si>
+  <si>
+    <t>436757.12</t>
+  </si>
+  <si>
+    <t>Grandma</t>
+  </si>
+  <si>
+    <t>Mistress America</t>
+  </si>
+  <si>
+    <t>104016.55</t>
+  </si>
+  <si>
+    <t>79576.61</t>
+  </si>
+  <si>
+    <t>Deuda de honor</t>
+  </si>
+  <si>
+    <t>229860.71</t>
+  </si>
+  <si>
+    <t>Invencible(Unbroken)</t>
+  </si>
+  <si>
+    <t>El clan</t>
+  </si>
+  <si>
+    <t>571704.75</t>
+  </si>
+  <si>
+    <t>Sicario</t>
+  </si>
+  <si>
+    <t>1783919.88</t>
+  </si>
+  <si>
+    <t>La final</t>
+  </si>
+  <si>
+    <t>1017.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoko y sus amigos </t>
+  </si>
+  <si>
+    <t>21301.10</t>
+  </si>
+  <si>
+    <t>Un otoño sin Berlin</t>
+  </si>
+  <si>
+    <t>93592.42</t>
+  </si>
+  <si>
+    <t>Isla Bonita</t>
+  </si>
+  <si>
+    <t>84246.82</t>
+  </si>
+  <si>
+    <t>El becario</t>
+  </si>
+  <si>
+    <t>3012287.85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -510,9 +671,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1852,6 +2014,12 @@
       <c r="D61" t="s">
         <v>124</v>
       </c>
+      <c r="I61" s="1">
+        <v>74877</v>
+      </c>
+      <c r="L61" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
@@ -1863,6 +2031,12 @@
       <c r="D62" t="s">
         <v>126</v>
       </c>
+      <c r="I62" s="1">
+        <v>476690</v>
+      </c>
+      <c r="L62" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
@@ -1874,6 +2048,12 @@
       <c r="D63" t="s">
         <v>128</v>
       </c>
+      <c r="I63" s="1">
+        <v>749</v>
+      </c>
+      <c r="L63" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
@@ -1885,8 +2065,14 @@
       <c r="D64" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="I64" s="1">
+        <v>32209</v>
+      </c>
+      <c r="L64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -1896,8 +2082,14 @@
       <c r="D65" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="I65" s="1">
+        <v>87535</v>
+      </c>
+      <c r="L65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>133</v>
       </c>
@@ -1907,8 +2099,14 @@
       <c r="D66" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="I66" s="1">
+        <v>1006133</v>
+      </c>
+      <c r="L66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>135</v>
       </c>
@@ -1918,8 +2116,14 @@
       <c r="D67" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="I67" s="1">
+        <v>139483</v>
+      </c>
+      <c r="L67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>137</v>
       </c>
@@ -1929,8 +2133,14 @@
       <c r="D68" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="I68" s="1">
+        <v>270334</v>
+      </c>
+      <c r="L68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -1940,8 +2150,14 @@
       <c r="D69" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="I69" s="1">
+        <v>2011770</v>
+      </c>
+      <c r="L69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>141</v>
       </c>
@@ -1951,8 +2167,14 @@
       <c r="D70" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="I70" s="1">
+        <v>1949131</v>
+      </c>
+      <c r="L70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>143</v>
       </c>
@@ -1962,8 +2184,14 @@
       <c r="D71" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="I71" s="1">
+        <v>683125</v>
+      </c>
+      <c r="L71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>145</v>
       </c>
@@ -1973,8 +2201,14 @@
       <c r="D72" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="I72" s="1">
+        <v>1362967</v>
+      </c>
+      <c r="L72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>147</v>
       </c>
@@ -1984,8 +2218,14 @@
       <c r="D73" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="I73" s="1">
+        <v>484927</v>
+      </c>
+      <c r="L73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -1995,16 +2235,319 @@
       <c r="D74" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="I74" s="1">
+        <v>768995</v>
+      </c>
+      <c r="L74" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1096900</v>
+      </c>
+      <c r="D75" t="s">
+        <v>161</v>
+      </c>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B76" s="1">
         <v>141402</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>152</v>
+      </c>
+      <c r="I76" s="1">
+        <v>141402</v>
+      </c>
+      <c r="L76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="1">
+        <v>94115</v>
+      </c>
+      <c r="D77" t="s">
+        <v>166</v>
+      </c>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="1">
+        <v>91601</v>
+      </c>
+      <c r="D78" t="s">
+        <v>165</v>
+      </c>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="1">
+        <v>12046</v>
+      </c>
+      <c r="D79" t="s">
+        <v>168</v>
+      </c>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="1">
+        <v>510</v>
+      </c>
+      <c r="D80" t="s">
+        <v>170</v>
+      </c>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81" s="1">
+        <v>55992</v>
+      </c>
+      <c r="D81" t="s">
+        <v>172</v>
+      </c>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" s="1">
+        <v>164183</v>
+      </c>
+      <c r="D82" t="s">
+        <v>174</v>
+      </c>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="1">
+        <v>7523</v>
+      </c>
+      <c r="D83" t="s">
+        <v>176</v>
+      </c>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" s="2" customFormat="1">
+      <c r="A84" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B84" s="1">
+        <v>21227</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="2" customFormat="1">
+      <c r="A85" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" s="1">
+        <v>484</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="2" customFormat="1">
+      <c r="A86" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="1">
+        <v>73075</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="2" customFormat="1">
+      <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="1">
+        <v>14812</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="2" customFormat="1">
+      <c r="A88" t="s">
+        <v>184</v>
+      </c>
+      <c r="B88" s="1">
+        <v>17984</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="2" customFormat="1">
+      <c r="A89" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" s="1">
+        <v>41574</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="2" customFormat="1">
+      <c r="A90" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="1">
+        <v>90536</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="2" customFormat="1">
+      <c r="A91" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="1">
+        <v>295429</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="2" customFormat="1">
+      <c r="A92" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="1">
+        <v>164</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="2" customFormat="1">
+      <c r="A93" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B93" s="1">
+        <v>4142</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="2" customFormat="1">
+      <c r="A94" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="1">
+        <v>19292</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="2" customFormat="1">
+      <c r="A95" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="1">
+        <v>15855</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="2" customFormat="1">
+      <c r="A96" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" s="1">
+        <v>563531</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="2"/>
+      <c r="B97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1095428</v>
+      </c>
+      <c r="D98" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" s="1">
+        <v>107844</v>
+      </c>
+      <c r="D99" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" s="1">
+        <v>330580</v>
+      </c>
+      <c r="D100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>189</v>
+      </c>
+      <c r="B101" s="1">
+        <v>538417</v>
+      </c>
+      <c r="D101" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>

--- a/codigo/espectadores peliculas.xlsx
+++ b/codigo/espectadores peliculas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="250">
   <si>
     <t>Bob Esponja</t>
   </si>
@@ -628,6 +628,144 @@
   </si>
   <si>
     <t>3012287.85</t>
+  </si>
+  <si>
+    <t>El cadaver de Anna Fitz</t>
+  </si>
+  <si>
+    <t>36243.54</t>
+  </si>
+  <si>
+    <t>La verdad(truth)</t>
+  </si>
+  <si>
+    <t>329174.74</t>
+  </si>
+  <si>
+    <t>Las aventuras de moriana</t>
+  </si>
+  <si>
+    <t>5582.82</t>
+  </si>
+  <si>
+    <t>Little boy</t>
+  </si>
+  <si>
+    <t>179797.46</t>
+  </si>
+  <si>
+    <t>The propaganda game</t>
+  </si>
+  <si>
+    <t>6546.4</t>
+  </si>
+  <si>
+    <t>Paranormal Activity Dimension Fantasma</t>
+  </si>
+  <si>
+    <t>958145.33</t>
+  </si>
+  <si>
+    <t>Amama</t>
+  </si>
+  <si>
+    <t>286656.17</t>
+  </si>
+  <si>
+    <t>El rey de la habana</t>
+  </si>
+  <si>
+    <t>160650.00</t>
+  </si>
+  <si>
+    <t>La cumbre escarlata</t>
+  </si>
+  <si>
+    <t>3108202.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los miercoles no existen </t>
+  </si>
+  <si>
+    <t>710263.74</t>
+  </si>
+  <si>
+    <t>El coro</t>
+  </si>
+  <si>
+    <t>690317.98</t>
+  </si>
+  <si>
+    <t>La playa de los ahogados</t>
+  </si>
+  <si>
+    <t>474800.48</t>
+  </si>
+  <si>
+    <t>Yo, el y raquel</t>
+  </si>
+  <si>
+    <t>177526.93</t>
+  </si>
+  <si>
+    <t>El apostata</t>
+  </si>
+  <si>
+    <t>21063.15</t>
+  </si>
+  <si>
+    <t>Irrational Man</t>
+  </si>
+  <si>
+    <t>2205523.48</t>
+  </si>
+  <si>
+    <t>Francisco, El padre de Jorge</t>
+  </si>
+  <si>
+    <t>395636.00</t>
+  </si>
+  <si>
+    <t>American Ultra</t>
+  </si>
+  <si>
+    <t>479966.46</t>
+  </si>
+  <si>
+    <t>Los exiliados romanticos</t>
+  </si>
+  <si>
+    <t>47056.05</t>
+  </si>
+  <si>
+    <t>Ma ma</t>
+  </si>
+  <si>
+    <t>818152.29</t>
+  </si>
+  <si>
+    <t>Atico sin ascensor</t>
+  </si>
+  <si>
+    <t>735727.88</t>
+  </si>
+  <si>
+    <t>Mientras seamos jovenes</t>
+  </si>
+  <si>
+    <t>487961.86</t>
+  </si>
+  <si>
+    <t>Transporter Legacy</t>
+  </si>
+  <si>
+    <t>Ricki</t>
+  </si>
+  <si>
+    <t>1756241.37</t>
+  </si>
+  <si>
+    <t>778587.25</t>
   </si>
 </sst>
 </file>
@@ -969,15 +1107,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.85546875" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
@@ -2498,55 +2636,308 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="2"/>
-      <c r="B97" s="1"/>
-      <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" t="s">
+    <row r="97" spans="1:4" s="2" customFormat="1">
+      <c r="A97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" s="1">
+        <v>8875</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="2" customFormat="1">
+      <c r="A98" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="1">
+        <v>64988</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="2" customFormat="1">
+      <c r="A99" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1080</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="2" customFormat="1">
+      <c r="A100" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="1">
+        <v>37419</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="2" customFormat="1">
+      <c r="A101" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1539</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="2" customFormat="1">
+      <c r="A102" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" s="1">
+        <v>183454</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="2" customFormat="1">
+      <c r="A103" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B103" s="1">
+        <v>55452</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="2" customFormat="1">
+      <c r="A104" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="1">
+        <v>30216</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="2" customFormat="1">
+      <c r="A105" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="1">
+        <v>573674</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="2" customFormat="1">
+      <c r="A106" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="1">
+        <v>128582</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="2" customFormat="1">
+      <c r="A107" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="1">
+        <v>111454</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="2" customFormat="1">
+      <c r="A108" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="1">
+        <v>82184</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="2" customFormat="1">
+      <c r="A109" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="1">
+        <v>30980</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="2" customFormat="1">
+      <c r="A110" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" s="1">
+        <v>3397</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="2" customFormat="1">
+      <c r="A111" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="1">
+        <v>353867</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="2" customFormat="1">
+      <c r="A112" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B112" s="1">
+        <v>66312</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="2" customFormat="1">
+      <c r="A113" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" s="1">
+        <v>82240</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="2" customFormat="1">
+      <c r="A114" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B114" s="1">
+        <v>8926</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="2" customFormat="1">
+      <c r="A115" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B115" s="1">
+        <v>139300</v>
+      </c>
+      <c r="D115" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="2" customFormat="1">
+      <c r="A116" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" s="1">
+        <v>115736</v>
+      </c>
+      <c r="D116" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="2" customFormat="1">
+      <c r="A117" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B117" s="1">
+        <v>78652</v>
+      </c>
+      <c r="D117" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="2" customFormat="1">
+      <c r="A118" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="1">
+        <v>126425</v>
+      </c>
+      <c r="D118" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="2" customFormat="1">
+      <c r="A119" t="s">
+        <v>247</v>
+      </c>
+      <c r="B119" s="1">
+        <v>287570</v>
+      </c>
+      <c r="D119" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2"/>
+      <c r="B120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
         <v>153</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B121" s="1">
         <v>1095428</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D121" t="s">
         <v>154</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99" t="s">
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
         <v>156</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B122" s="1">
         <v>107844</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D122" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100" t="s">
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
         <v>158</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B123" s="1">
         <v>330580</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B124" s="1">
         <v>538417</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D124" t="s">
         <v>162</v>
       </c>
     </row>

--- a/codigo/espectadores peliculas.xlsx
+++ b/codigo/espectadores peliculas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="314">
   <si>
     <t>Bob Esponja</t>
   </si>
@@ -766,6 +766,198 @@
   </si>
   <si>
     <t>778587.25</t>
+  </si>
+  <si>
+    <t>Cut Bank</t>
+  </si>
+  <si>
+    <t>192219.10</t>
+  </si>
+  <si>
+    <t>Señor Manglehorn</t>
+  </si>
+  <si>
+    <t>93610.01</t>
+  </si>
+  <si>
+    <t>Bloodsucking bastards</t>
+  </si>
+  <si>
+    <t>290.70</t>
+  </si>
+  <si>
+    <t>Tracers</t>
+  </si>
+  <si>
+    <t>165628.12</t>
+  </si>
+  <si>
+    <t>Drama, +12, Abril, 138, Paramount, EstadosUnidos, Libro</t>
+  </si>
+  <si>
+    <t>Drama, +7, Diciembre, 106, AurumProducciones, EstadosUnidos, Original</t>
+  </si>
+  <si>
+    <t>Comedia, +12, Diciembre, 105, Otra, España, Original</t>
+  </si>
+  <si>
+    <t>Drama, +12, Diciembre, 137, UniversalPicturesInternational, EstadosUnidos, HechosReales</t>
+  </si>
+  <si>
+    <t>Y de repente tu</t>
+  </si>
+  <si>
+    <t>1260388.99</t>
+  </si>
+  <si>
+    <t>Sin Hijos</t>
+  </si>
+  <si>
+    <t>229720.68</t>
+  </si>
+  <si>
+    <t>Bernie</t>
+  </si>
+  <si>
+    <t>89581.64</t>
+  </si>
+  <si>
+    <t>Ciudades de papel</t>
+  </si>
+  <si>
+    <t>1952265.50</t>
+  </si>
+  <si>
+    <t>Mi casa en paris</t>
+  </si>
+  <si>
+    <t>892572.33</t>
+  </si>
+  <si>
+    <t>El secreto de Adaline</t>
+  </si>
+  <si>
+    <t>1793807.69</t>
+  </si>
+  <si>
+    <t>Lio en Broadway</t>
+  </si>
+  <si>
+    <t>174697.36</t>
+  </si>
+  <si>
+    <t>Entourage(El sequito)</t>
+  </si>
+  <si>
+    <t>126537.42</t>
+  </si>
+  <si>
+    <t>Rey Gitano</t>
+  </si>
+  <si>
+    <t>927034.23</t>
+  </si>
+  <si>
+    <t>Elsa &amp; Fred</t>
+  </si>
+  <si>
+    <t>81222.24</t>
+  </si>
+  <si>
+    <t>Investigacion Policial</t>
+  </si>
+  <si>
+    <t>5022.75</t>
+  </si>
+  <si>
+    <t>Love &amp; Mercy</t>
+  </si>
+  <si>
+    <t>61032.36</t>
+  </si>
+  <si>
+    <t>Magic Mike XXL</t>
+  </si>
+  <si>
+    <t>904353.18</t>
+  </si>
+  <si>
+    <t>Aprendiendo a conducir</t>
+  </si>
+  <si>
+    <t>834837.27</t>
+  </si>
+  <si>
+    <t>Asesinos inocentes</t>
+  </si>
+  <si>
+    <t>116445.55</t>
+  </si>
+  <si>
+    <t>Espias</t>
+  </si>
+  <si>
+    <t>1980765.90</t>
+  </si>
+  <si>
+    <t>El niño 44</t>
+  </si>
+  <si>
+    <t>849512.91</t>
+  </si>
+  <si>
+    <t>Dale duro</t>
+  </si>
+  <si>
+    <t>81005.79</t>
+  </si>
+  <si>
+    <t>Hablar</t>
+  </si>
+  <si>
+    <t>95568.72</t>
+  </si>
+  <si>
+    <t>Horns</t>
+  </si>
+  <si>
+    <t>43224.77</t>
+  </si>
+  <si>
+    <t>Negocios con resaca</t>
+  </si>
+  <si>
+    <t>90852.08</t>
+  </si>
+  <si>
+    <t>Requisitos para ser una persona normal</t>
+  </si>
+  <si>
+    <t>486435.41</t>
+  </si>
+  <si>
+    <t>Matar el tiempo</t>
+  </si>
+  <si>
+    <t>20313.99</t>
+  </si>
+  <si>
+    <t>Zombeavers</t>
+  </si>
+  <si>
+    <t>1333.30</t>
+  </si>
+  <si>
+    <t>Oculus el espejo del mal</t>
+  </si>
+  <si>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>Lawless (sin ley)</t>
+  </si>
+  <si>
+    <t>1251.60</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2457,7 +2649,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
         <v>171</v>
       </c>
@@ -2469,7 +2661,7 @@
       </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -2481,7 +2673,7 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
         <v>175</v>
       </c>
@@ -2493,7 +2685,7 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" s="2" customFormat="1">
+    <row r="84" spans="1:13" s="2" customFormat="1">
       <c r="A84" s="1" t="s">
         <v>177</v>
       </c>
@@ -2504,7 +2696,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="2" customFormat="1">
+    <row r="85" spans="1:13" s="2" customFormat="1">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -2515,7 +2707,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="2" customFormat="1">
+    <row r="86" spans="1:13" s="2" customFormat="1">
       <c r="A86" t="s">
         <v>181</v>
       </c>
@@ -2526,7 +2718,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="2" customFormat="1">
+    <row r="87" spans="1:13" s="2" customFormat="1">
       <c r="A87" t="s">
         <v>183</v>
       </c>
@@ -2537,7 +2729,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="2" customFormat="1">
+    <row r="88" spans="1:13" s="2" customFormat="1">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -2548,7 +2740,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="2" customFormat="1">
+    <row r="89" spans="1:13" s="2" customFormat="1">
       <c r="A89" s="1" t="s">
         <v>187</v>
       </c>
@@ -2559,7 +2751,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="2" customFormat="1">
+    <row r="90" spans="1:13" s="2" customFormat="1">
       <c r="A90" s="1" t="s">
         <v>190</v>
       </c>
@@ -2570,7 +2762,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="2" customFormat="1">
+    <row r="91" spans="1:13" s="2" customFormat="1">
       <c r="A91" s="1" t="s">
         <v>192</v>
       </c>
@@ -2581,7 +2773,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="2" customFormat="1">
+    <row r="92" spans="1:13" s="2" customFormat="1">
       <c r="A92" s="1" t="s">
         <v>194</v>
       </c>
@@ -2591,8 +2783,21 @@
       <c r="D92" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" s="2" customFormat="1">
+      <c r="I92" t="s">
+        <v>153</v>
+      </c>
+      <c r="J92" s="1">
+        <v>1095428</v>
+      </c>
+      <c r="K92"/>
+      <c r="L92" t="s">
+        <v>154</v>
+      </c>
+      <c r="M92" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="2" customFormat="1">
       <c r="A93" s="1" t="s">
         <v>196</v>
       </c>
@@ -2602,8 +2807,19 @@
       <c r="D93" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" s="2" customFormat="1">
+      <c r="I93" t="s">
+        <v>156</v>
+      </c>
+      <c r="J93" s="1">
+        <v>107844</v>
+      </c>
+      <c r="K93"/>
+      <c r="L93" t="s">
+        <v>157</v>
+      </c>
+      <c r="M93"/>
+    </row>
+    <row r="94" spans="1:13" s="2" customFormat="1">
       <c r="A94" s="1" t="s">
         <v>198</v>
       </c>
@@ -2613,8 +2829,19 @@
       <c r="D94" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" s="2" customFormat="1">
+      <c r="I94" t="s">
+        <v>158</v>
+      </c>
+      <c r="J94" s="1">
+        <v>330580</v>
+      </c>
+      <c r="K94"/>
+      <c r="L94" t="s">
+        <v>159</v>
+      </c>
+      <c r="M94"/>
+    </row>
+    <row r="95" spans="1:13" s="2" customFormat="1">
       <c r="A95" s="1" t="s">
         <v>200</v>
       </c>
@@ -2624,8 +2851,19 @@
       <c r="D95" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" s="2" customFormat="1">
+      <c r="I95" t="s">
+        <v>189</v>
+      </c>
+      <c r="J95" s="1">
+        <v>538417</v>
+      </c>
+      <c r="K95"/>
+      <c r="L95" t="s">
+        <v>162</v>
+      </c>
+      <c r="M95"/>
+    </row>
+    <row r="96" spans="1:13" s="2" customFormat="1">
       <c r="A96" s="1" t="s">
         <v>202</v>
       </c>
@@ -2636,7 +2874,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="2" customFormat="1">
+    <row r="97" spans="1:9" s="2" customFormat="1">
       <c r="A97" s="1" t="s">
         <v>204</v>
       </c>
@@ -2646,8 +2884,11 @@
       <c r="D97" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" s="2" customFormat="1">
+      <c r="I97" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="2" customFormat="1">
       <c r="A98" s="1" t="s">
         <v>206</v>
       </c>
@@ -2657,8 +2898,11 @@
       <c r="D98" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" s="2" customFormat="1">
+      <c r="I98" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="2" customFormat="1">
       <c r="A99" s="1" t="s">
         <v>208</v>
       </c>
@@ -2668,8 +2912,11 @@
       <c r="D99" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" s="2" customFormat="1">
+      <c r="I99" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="2" customFormat="1">
       <c r="A100" s="1" t="s">
         <v>210</v>
       </c>
@@ -2679,8 +2926,11 @@
       <c r="D100" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" s="2" customFormat="1">
+      <c r="I100" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="2" customFormat="1">
       <c r="A101" s="1" t="s">
         <v>212</v>
       </c>
@@ -2691,7 +2941,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="2" customFormat="1">
+    <row r="102" spans="1:9" s="2" customFormat="1">
       <c r="A102" s="1" t="s">
         <v>214</v>
       </c>
@@ -2702,7 +2952,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="2" customFormat="1">
+    <row r="103" spans="1:9" s="2" customFormat="1">
       <c r="A103" s="1" t="s">
         <v>216</v>
       </c>
@@ -2713,7 +2963,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="2" customFormat="1">
+    <row r="104" spans="1:9" s="2" customFormat="1">
       <c r="A104" s="1" t="s">
         <v>218</v>
       </c>
@@ -2724,7 +2974,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="2" customFormat="1">
+    <row r="105" spans="1:9" s="2" customFormat="1">
       <c r="A105" s="1" t="s">
         <v>220</v>
       </c>
@@ -2735,7 +2985,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="2" customFormat="1">
+    <row r="106" spans="1:9" s="2" customFormat="1">
       <c r="A106" s="1" t="s">
         <v>222</v>
       </c>
@@ -2746,7 +2996,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="2" customFormat="1">
+    <row r="107" spans="1:9" s="2" customFormat="1">
       <c r="A107" s="1" t="s">
         <v>224</v>
       </c>
@@ -2757,7 +3007,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="2" customFormat="1">
+    <row r="108" spans="1:9" s="2" customFormat="1">
       <c r="A108" s="1" t="s">
         <v>226</v>
       </c>
@@ -2768,7 +3018,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="2" customFormat="1">
+    <row r="109" spans="1:9" s="2" customFormat="1">
       <c r="A109" s="1" t="s">
         <v>228</v>
       </c>
@@ -2779,7 +3029,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="2" customFormat="1">
+    <row r="110" spans="1:9" s="2" customFormat="1">
       <c r="A110" s="1" t="s">
         <v>230</v>
       </c>
@@ -2790,7 +3040,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="2" customFormat="1">
+    <row r="111" spans="1:9" s="2" customFormat="1">
       <c r="A111" s="1" t="s">
         <v>232</v>
       </c>
@@ -2801,7 +3051,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="2" customFormat="1">
+    <row r="112" spans="1:9" s="2" customFormat="1">
       <c r="A112" s="1" t="s">
         <v>234</v>
       </c>
@@ -2889,56 +3139,335 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="2"/>
-      <c r="B120" s="1"/>
-      <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9">
+    <row r="120" spans="1:9" s="2" customFormat="1">
+      <c r="A120" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="1">
+        <v>33551</v>
+      </c>
+      <c r="D120" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="2" customFormat="1">
       <c r="A121" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="B121" s="1">
-        <v>1095428</v>
+        <v>15631</v>
       </c>
       <c r="D121" t="s">
-        <v>154</v>
-      </c>
-      <c r="E121" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="2" customFormat="1">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="B122" s="1">
-        <v>107844</v>
+        <v>74</v>
       </c>
       <c r="D122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="2" customFormat="1">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="B123" s="1">
-        <v>330580</v>
+        <v>28886</v>
       </c>
       <c r="D123" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="B124" s="1">
-        <v>538417</v>
+        <v>216319</v>
       </c>
       <c r="D124" t="s">
-        <v>162</v>
+        <v>263</v>
+      </c>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" s="1">
+        <v>38831</v>
+      </c>
+      <c r="D125" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>266</v>
+      </c>
+      <c r="B126" s="1">
+        <v>17515</v>
+      </c>
+      <c r="D126" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>268</v>
+      </c>
+      <c r="B127" s="1">
+        <v>355101</v>
+      </c>
+      <c r="D127" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>270</v>
+      </c>
+      <c r="B128" s="1">
+        <v>151655</v>
+      </c>
+      <c r="D128" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>272</v>
+      </c>
+      <c r="B129" s="1">
+        <v>303930</v>
+      </c>
+      <c r="D129" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>274</v>
+      </c>
+      <c r="B130" s="1">
+        <v>27922</v>
+      </c>
+      <c r="D130" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>276</v>
+      </c>
+      <c r="B131" s="1">
+        <v>19817</v>
+      </c>
+      <c r="D131" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" s="1">
+        <v>157404</v>
+      </c>
+      <c r="D132" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>280</v>
+      </c>
+      <c r="B133" s="1">
+        <v>14146</v>
+      </c>
+      <c r="D133" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>282</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1027</v>
+      </c>
+      <c r="D134" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>284</v>
+      </c>
+      <c r="B135" s="1">
+        <v>10182</v>
+      </c>
+      <c r="D135" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>286</v>
+      </c>
+      <c r="B136" s="1">
+        <v>153724</v>
+      </c>
+      <c r="D136" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>288</v>
+      </c>
+      <c r="B137" s="1">
+        <v>137380</v>
+      </c>
+      <c r="D137" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>290</v>
+      </c>
+      <c r="B138" s="1">
+        <v>20745</v>
+      </c>
+      <c r="D138" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>292</v>
+      </c>
+      <c r="B139" s="1">
+        <v>337698</v>
+      </c>
+      <c r="D139" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>294</v>
+      </c>
+      <c r="B140" s="1">
+        <v>141994</v>
+      </c>
+      <c r="D140" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>296</v>
+      </c>
+      <c r="B141" s="1">
+        <v>12627</v>
+      </c>
+      <c r="D141" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>298</v>
+      </c>
+      <c r="B142" s="1">
+        <v>15865</v>
+      </c>
+      <c r="D142" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>300</v>
+      </c>
+      <c r="B143" s="1">
+        <v>7263</v>
+      </c>
+      <c r="D143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>302</v>
+      </c>
+      <c r="B144" s="1">
+        <v>15647</v>
+      </c>
+      <c r="D144" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>304</v>
+      </c>
+      <c r="B145" s="1">
+        <v>82882</v>
+      </c>
+      <c r="D145" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>306</v>
+      </c>
+      <c r="B146" s="1">
+        <v>3901</v>
+      </c>
+      <c r="D146" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>308</v>
+      </c>
+      <c r="B147" s="1">
+        <v>321</v>
+      </c>
+      <c r="D147" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>310</v>
+      </c>
+      <c r="B148" s="1">
+        <v>94</v>
+      </c>
+      <c r="D148" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>312</v>
+      </c>
+      <c r="B149" s="1">
+        <v>358</v>
+      </c>
+      <c r="D149" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/codigo/espectadores peliculas.xlsx
+++ b/codigo/espectadores peliculas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="390">
   <si>
     <t>Bob Esponja</t>
   </si>
@@ -958,6 +958,234 @@
   </si>
   <si>
     <t>1251.60</t>
+  </si>
+  <si>
+    <t>Caza al asesino(the gunman)</t>
+  </si>
+  <si>
+    <t>532072.26</t>
+  </si>
+  <si>
+    <t>Con la magia en los zapatos</t>
+  </si>
+  <si>
+    <t>114953.23</t>
+  </si>
+  <si>
+    <t>Dando la nota aun mas alto</t>
+  </si>
+  <si>
+    <t>2553143.86</t>
+  </si>
+  <si>
+    <t>Lo mejor para ella</t>
+  </si>
+  <si>
+    <t>110581.72</t>
+  </si>
+  <si>
+    <t>Mad max furia en la carretera</t>
+  </si>
+  <si>
+    <t>3940884.39</t>
+  </si>
+  <si>
+    <t>A cambio de nada</t>
+  </si>
+  <si>
+    <t>585126.18</t>
+  </si>
+  <si>
+    <t>El viaje mas largo</t>
+  </si>
+  <si>
+    <t>1604335.34</t>
+  </si>
+  <si>
+    <t>Difret</t>
+  </si>
+  <si>
+    <t>31865.31</t>
+  </si>
+  <si>
+    <t>El hijo bastardo de dios</t>
+  </si>
+  <si>
+    <t>1424.70</t>
+  </si>
+  <si>
+    <t>Lo mejor de mi (th best of me)</t>
+  </si>
+  <si>
+    <t>653223.38</t>
+  </si>
+  <si>
+    <t>Pos eso</t>
+  </si>
+  <si>
+    <t>15462.07</t>
+  </si>
+  <si>
+    <t>Tiempo sin aire</t>
+  </si>
+  <si>
+    <t>144910.75</t>
+  </si>
+  <si>
+    <t>La piramide</t>
+  </si>
+  <si>
+    <t>179088.62</t>
+  </si>
+  <si>
+    <t>La sombra del actor</t>
+  </si>
+  <si>
+    <t>109080.54</t>
+  </si>
+  <si>
+    <t>Murieron por encima de sus posibilidades</t>
+  </si>
+  <si>
+    <t>62531.22</t>
+  </si>
+  <si>
+    <t>Sexo facil y peliculas tristes</t>
+  </si>
+  <si>
+    <t>123182.07</t>
+  </si>
+  <si>
+    <t>Superpoli en las vegas</t>
+  </si>
+  <si>
+    <t>1335563.72</t>
+  </si>
+  <si>
+    <t>Lost river</t>
+  </si>
+  <si>
+    <t>16647.10</t>
+  </si>
+  <si>
+    <t>Una noche para sobrevivir</t>
+  </si>
+  <si>
+    <t>1139397.08</t>
+  </si>
+  <si>
+    <t>Felices 140</t>
+  </si>
+  <si>
+    <t>955632.06</t>
+  </si>
+  <si>
+    <t>La dama de oro</t>
+  </si>
+  <si>
+    <t>1390132.92</t>
+  </si>
+  <si>
+    <t>Mortdecai</t>
+  </si>
+  <si>
+    <t>722600.99</t>
+  </si>
+  <si>
+    <t>The Guest</t>
+  </si>
+  <si>
+    <t>4400.10</t>
+  </si>
+  <si>
+    <t>El año mas violento</t>
+  </si>
+  <si>
+    <t>373123.48</t>
+  </si>
+  <si>
+    <t>67507.97</t>
+  </si>
+  <si>
+    <t>El hombre mas enfadado de Brooklyn</t>
+  </si>
+  <si>
+    <t>Enamorarse</t>
+  </si>
+  <si>
+    <t>107061.56</t>
+  </si>
+  <si>
+    <t>La conspiracion de noviembre</t>
+  </si>
+  <si>
+    <t>614549.59</t>
+  </si>
+  <si>
+    <t>Negociador</t>
+  </si>
+  <si>
+    <t>196449.27</t>
+  </si>
+  <si>
+    <t>Puro Vicio</t>
+  </si>
+  <si>
+    <t>280018.93</t>
+  </si>
+  <si>
+    <t>Selma</t>
+  </si>
+  <si>
+    <t>280861.39</t>
+  </si>
+  <si>
+    <t>Calvary</t>
+  </si>
+  <si>
+    <t>336285.52</t>
+  </si>
+  <si>
+    <t>Kingsman Servicio secreto</t>
+  </si>
+  <si>
+    <t>3989363.55</t>
+  </si>
+  <si>
+    <t>El libro de la vida</t>
+  </si>
+  <si>
+    <t>1217422.01</t>
+  </si>
+  <si>
+    <t>La señal</t>
+  </si>
+  <si>
+    <t>129404.75</t>
+  </si>
+  <si>
+    <t>Red Army</t>
+  </si>
+  <si>
+    <t>61240.08</t>
+  </si>
+  <si>
+    <t>Foxcatcher</t>
+  </si>
+  <si>
+    <t>340619.45</t>
+  </si>
+  <si>
+    <t>The Interview</t>
+  </si>
+  <si>
+    <t>782605.39</t>
+  </si>
+  <si>
+    <t>Tusk</t>
+  </si>
+  <si>
+    <t>5067.44</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3468,6 +3696,424 @@
       </c>
       <c r="D149" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>314</v>
+      </c>
+      <c r="B150" s="1">
+        <v>86940</v>
+      </c>
+      <c r="D150" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>316</v>
+      </c>
+      <c r="B151" s="1">
+        <v>19704</v>
+      </c>
+      <c r="D151" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>318</v>
+      </c>
+      <c r="B152" s="1">
+        <v>423035</v>
+      </c>
+      <c r="D152" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>320</v>
+      </c>
+      <c r="B153" s="1">
+        <v>18550</v>
+      </c>
+      <c r="D153" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>322</v>
+      </c>
+      <c r="B154" s="1">
+        <v>603432</v>
+      </c>
+      <c r="D154" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>324</v>
+      </c>
+      <c r="B155" s="1">
+        <v>125310</v>
+      </c>
+      <c r="D155" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>326</v>
+      </c>
+      <c r="B156" s="1">
+        <v>340141</v>
+      </c>
+      <c r="D156" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>328</v>
+      </c>
+      <c r="B157" s="1">
+        <v>6366</v>
+      </c>
+      <c r="D157" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>330</v>
+      </c>
+      <c r="B158" s="1">
+        <v>281</v>
+      </c>
+      <c r="D158" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>332</v>
+      </c>
+      <c r="B159" s="1">
+        <v>129262</v>
+      </c>
+      <c r="D159" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>334</v>
+      </c>
+      <c r="B160" s="1">
+        <v>3121</v>
+      </c>
+      <c r="D160" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>336</v>
+      </c>
+      <c r="B161" s="1">
+        <v>28960</v>
+      </c>
+      <c r="D161" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>338</v>
+      </c>
+      <c r="B162" s="1">
+        <v>31060</v>
+      </c>
+      <c r="D162" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>340</v>
+      </c>
+      <c r="B163" s="1">
+        <v>19051</v>
+      </c>
+      <c r="D163" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>342</v>
+      </c>
+      <c r="B164" s="1">
+        <v>10623</v>
+      </c>
+      <c r="D164" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>344</v>
+      </c>
+      <c r="B165" s="1">
+        <v>20016</v>
+      </c>
+      <c r="D165" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>346</v>
+      </c>
+      <c r="B166" s="1">
+        <v>234066</v>
+      </c>
+      <c r="D166" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>348</v>
+      </c>
+      <c r="B167" s="1">
+        <v>2837</v>
+      </c>
+      <c r="D167" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>350</v>
+      </c>
+      <c r="B168" s="1">
+        <v>179438</v>
+      </c>
+      <c r="D168" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>352</v>
+      </c>
+      <c r="B169" s="1">
+        <v>158027</v>
+      </c>
+      <c r="D169" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>354</v>
+      </c>
+      <c r="B170" s="1">
+        <v>226015</v>
+      </c>
+      <c r="D170" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>356</v>
+      </c>
+      <c r="B171" s="1">
+        <v>120061</v>
+      </c>
+      <c r="D171" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>358</v>
+      </c>
+      <c r="B172" s="1">
+        <v>766</v>
+      </c>
+      <c r="D172" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>360</v>
+      </c>
+      <c r="B173" s="1">
+        <v>59781</v>
+      </c>
+      <c r="D173" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>363</v>
+      </c>
+      <c r="B174" s="1">
+        <v>10994</v>
+      </c>
+      <c r="D174" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>364</v>
+      </c>
+      <c r="B175" s="1">
+        <v>16607</v>
+      </c>
+      <c r="D175" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>366</v>
+      </c>
+      <c r="B176" s="1">
+        <v>100419</v>
+      </c>
+      <c r="D176" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>368</v>
+      </c>
+      <c r="B177" s="1">
+        <v>33759</v>
+      </c>
+      <c r="D177" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>370</v>
+      </c>
+      <c r="B178" s="1">
+        <v>42684</v>
+      </c>
+      <c r="D178" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>372</v>
+      </c>
+      <c r="B179" s="1">
+        <v>49101</v>
+      </c>
+      <c r="D179" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>374</v>
+      </c>
+      <c r="B180" s="1">
+        <v>57213</v>
+      </c>
+      <c r="D180" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>376</v>
+      </c>
+      <c r="B181" s="1">
+        <v>648156</v>
+      </c>
+      <c r="D181" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>378</v>
+      </c>
+      <c r="B182" s="1">
+        <v>209780</v>
+      </c>
+      <c r="D182" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>380</v>
+      </c>
+      <c r="B183" s="1">
+        <v>21635</v>
+      </c>
+      <c r="D183" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>382</v>
+      </c>
+      <c r="B184" s="1">
+        <v>10253</v>
+      </c>
+      <c r="D184" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>384</v>
+      </c>
+      <c r="B185" s="1">
+        <v>56908</v>
+      </c>
+      <c r="D185" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>386</v>
+      </c>
+      <c r="B186" s="1">
+        <v>128317</v>
+      </c>
+      <c r="D186" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>388</v>
+      </c>
+      <c r="B187" s="1">
+        <v>842</v>
+      </c>
+      <c r="D187" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/codigo/espectadores peliculas.xlsx
+++ b/codigo/espectadores peliculas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="413">
   <si>
     <t>Bob Esponja</t>
   </si>
@@ -1186,6 +1186,75 @@
   </si>
   <si>
     <t>5067.44</t>
+  </si>
+  <si>
+    <t>Alma Salvaje</t>
+  </si>
+  <si>
+    <t>452260.07</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>3141033.43</t>
+  </si>
+  <si>
+    <t>Blackhat amenaza en la red</t>
+  </si>
+  <si>
+    <t>765275.68</t>
+  </si>
+  <si>
+    <t>Cartas a Maria</t>
+  </si>
+  <si>
+    <t>1451.00</t>
+  </si>
+  <si>
+    <t>Las ovejas no pierden el tren</t>
+  </si>
+  <si>
+    <t>1269477.14</t>
+  </si>
+  <si>
+    <t>Nightcrawler</t>
+  </si>
+  <si>
+    <t>391661.42</t>
+  </si>
+  <si>
+    <t>Project Almanac</t>
+  </si>
+  <si>
+    <t>335712.09</t>
+  </si>
+  <si>
+    <t>Somos los que somos</t>
+  </si>
+  <si>
+    <t>220.50</t>
+  </si>
+  <si>
+    <t>Whiplash</t>
+  </si>
+  <si>
+    <t>580339.09</t>
+  </si>
+  <si>
+    <t>Birdman</t>
+  </si>
+  <si>
+    <t>Como acabar sin tu jefe 2</t>
+  </si>
+  <si>
+    <t>673391.01</t>
+  </si>
+  <si>
+    <t>El jugador</t>
+  </si>
+  <si>
+    <t>298147.59</t>
   </si>
 </sst>
 </file>
@@ -1527,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3280,7 +3349,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" s="2" customFormat="1">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>234</v>
       </c>
       <c r="B112" s="1">
@@ -4115,6 +4184,141 @@
       <c r="D187" t="s">
         <v>389</v>
       </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>390</v>
+      </c>
+      <c r="B188" s="1">
+        <v>73289</v>
+      </c>
+      <c r="D188" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>392</v>
+      </c>
+      <c r="B189" s="1">
+        <v>517057</v>
+      </c>
+      <c r="D189" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>394</v>
+      </c>
+      <c r="B190" s="1">
+        <v>123753</v>
+      </c>
+      <c r="D190" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>396</v>
+      </c>
+      <c r="B191" s="1">
+        <v>228</v>
+      </c>
+      <c r="D191" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>398</v>
+      </c>
+      <c r="B192" s="1">
+        <v>216168</v>
+      </c>
+      <c r="D192" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>400</v>
+      </c>
+      <c r="B193" s="1">
+        <v>68795</v>
+      </c>
+      <c r="D193" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>402</v>
+      </c>
+      <c r="B194" s="1">
+        <v>56334</v>
+      </c>
+      <c r="D194" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>404</v>
+      </c>
+      <c r="B195" s="1">
+        <v>37</v>
+      </c>
+      <c r="D195" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>406</v>
+      </c>
+      <c r="B196" s="1">
+        <v>98278</v>
+      </c>
+      <c r="D196" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>408</v>
+      </c>
+      <c r="B197" s="1">
+        <v>728136</v>
+      </c>
+      <c r="D197">
+        <v>4521242.5999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>409</v>
+      </c>
+      <c r="B198" s="1">
+        <v>98152</v>
+      </c>
+      <c r="D198" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>411</v>
+      </c>
+      <c r="B199" s="1">
+        <v>45341</v>
+      </c>
+      <c r="D199" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="B200" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
